--- a/simpleTest2.xlsx
+++ b/simpleTest2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Hello &lt;&lt;FOO&gt;&gt;</t>
   </si>
   <si>
     <t>WE THINK YOU ARE &lt;&lt;BAR&gt;&gt; TODAY!!! VERY &lt;&lt;BAR&gt;&gt;. ISN'T THAT RIGHT &lt;&lt;FOO&gt;&gt;??</t>
+  </si>
+  <si>
+    <t>IW &lt;&lt;FOO&gt;&gt;</t>
+  </si>
+  <si>
+    <t>WI &lt;&lt;BAR&gt;&gt;</t>
+  </si>
+  <si>
+    <t>HELLO &lt;&lt;bAR&gt;&gt; and &lt;&lt;fOo&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -122,15 +131,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.4183673469388"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -143,6 +152,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
